--- a/Documentos/Listas de variáveis por classe/ABCDario/LearnLetter.xlsx
+++ b/Documentos/Listas de variáveis por classe/ABCDario/LearnLetter.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
-    <t>Function</t>
-  </si>
-  <si>
     <t>Tipo</t>
   </si>
   <si>
@@ -79,13 +76,16 @@
   </si>
   <si>
     <t>letter for choice</t>
+  </si>
+  <si>
+    <t>LearnLetter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +95,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -185,6 +194,12 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -194,18 +209,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +512,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -514,117 +523,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -639,6 +648,7 @@
     <mergeCell ref="C6:E6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
